--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>STEROWNIK SILNIKA</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Opcja Filtr</t>
   </si>
   <si>
-    <t>L 1uH</t>
-  </si>
-  <si>
     <t>Koncensator 100uF</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>L1uH</t>
   </si>
   <si>
-    <t>805  1A</t>
-  </si>
-  <si>
     <t>1210 1A</t>
   </si>
   <si>
@@ -167,13 +161,22 @@
   </si>
   <si>
     <t>Płytka 20x30</t>
+  </si>
+  <si>
+    <t>Goldpin</t>
+  </si>
+  <si>
+    <t>Kondensator 330uF</t>
+  </si>
+  <si>
+    <t>6V3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -257,10 +266,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -276,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,9 +327,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,26 +572,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,16 +605,16 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="4:14">
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <f>3.3/1.25-1</f>
@@ -634,7 +647,7 @@
         <v>3.396590909090909</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -648,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>3.9</v>
@@ -657,9 +670,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <f>J5/J4</f>
@@ -669,12 +682,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,10 +701,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -705,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
@@ -719,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,57 +743,46 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="4:14">
-      <c r="D14" s="1" t="s">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
-      <c r="D15" s="1" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E15">
-        <v>0.04</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0.4</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E17">
         <v>0.04</v>
@@ -789,169 +791,189 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>0.04</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="1" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>0.04</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>0.4</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>0.15</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="6" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="4:7">
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7">
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7">
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="G34" s="8" t="s">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G37">
+        <f>SUM(E10:E38)</f>
+        <v>21.740000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="G36">
-        <f>SUM(E10:E34)</f>
-        <v>20.790000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -963,24 +985,25 @@
     <hyperlink ref="D5" r:id="rId5"/>
     <hyperlink ref="D11" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D17" r:id="rId11"/>
-    <hyperlink ref="D18" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D19" r:id="rId16"/>
-    <hyperlink ref="D32" r:id="rId17"/>
-    <hyperlink ref="E27" r:id="rId18" display="PESD2CAN"/>
-    <hyperlink ref="E28" r:id="rId19" display="http://www.tme.eu/pl/details/dg126-5.0-2p14/listwy-zaciskowe-do-druku/degson-electronics/dg126-50-02p-14-00a/"/>
-    <hyperlink ref="E29" r:id="rId20" display="0.05"/>
-    <hyperlink ref="E30" r:id="rId21" display="http://www.tme.eu/pl/details/08055c103kat2a/kondensatory-mlcc-smd-0805/avx/"/>
-    <hyperlink ref="E31" r:id="rId22" display="http://www.tme.eu/pl/details/08055c104kat2a/kondensatory-mlcc-smd-0805/avx/"/>
-    <hyperlink ref="E34" r:id="rId23" display="SN65HVD232D"/>
+    <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="D17" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="D19" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D24" r:id="rId13"/>
+    <hyperlink ref="D25" r:id="rId14"/>
+    <hyperlink ref="D21" r:id="rId15"/>
+    <hyperlink ref="D33" r:id="rId16"/>
+    <hyperlink ref="E28" r:id="rId17" display="PESD2CAN"/>
+    <hyperlink ref="E29" r:id="rId18" display="http://www.tme.eu/pl/details/dg126-5.0-2p14/listwy-zaciskowe-do-druku/degson-electronics/dg126-50-02p-14-00a/"/>
+    <hyperlink ref="E30" r:id="rId19" display="0.05"/>
+    <hyperlink ref="E31" r:id="rId20" display="http://www.tme.eu/pl/details/08055c103kat2a/kondensatory-mlcc-smd-0805/avx/"/>
+    <hyperlink ref="E32" r:id="rId21" display="http://www.tme.eu/pl/details/08055c104kat2a/kondensatory-mlcc-smd-0805/avx/"/>
+    <hyperlink ref="E35" r:id="rId22" display="SN65HVD232D"/>
+    <hyperlink ref="E37" r:id="rId23" display="http://www.tme.eu/pl/details/zl201-08g/listwy-i-gniazda-kolkowe/connfly/ds1021-1_8sf1-1/"/>
+    <hyperlink ref="D14" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>STEROWNIK SILNIKA</t>
   </si>
@@ -170,13 +170,19 @@
   </si>
   <si>
     <t>6V3</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>TME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -268,10 +274,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -287,9 +294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,9 +334,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,10 +368,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,10 +402,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,139 +577,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:N38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:15">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="4:15">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:15">
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:15">
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>3.3/1.25-1</f>
         <v>1.6399999999999997</v>
       </c>
-      <c r="L4" s="3">
-        <f>1.25*(1+L5/L6)</f>
+      <c r="M4" s="3">
+        <f>1.25*(1+M5/M6)</f>
         <v>3.4659090909090908</v>
       </c>
-      <c r="M4" s="4">
-        <f>L4+0.02*L4</f>
+      <c r="N4" s="4">
+        <f>M4+0.02*M4</f>
         <v>3.5352272727272727</v>
       </c>
-      <c r="N4" s="4">
-        <f>L4-0.02*L4</f>
+      <c r="O4" s="4">
+        <f>M4-0.02*M4</f>
         <v>3.396590909090909</v>
       </c>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:15">
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.9</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="4:15">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6">
-        <f>J5/J4</f>
+      <c r="K6">
+        <f>K5/K4</f>
         <v>2.3780487804878052</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:15">
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:15">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:15">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:15">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -712,268 +725,297 @@
         <v>0.8</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:15">
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:15">
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12">
         <v>0.7</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:15">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:15">
       <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="10">
         <v>0.5</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:15">
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:15">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8">
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E17">
         <v>0.04</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18">
         <v>0.4</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8">
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19">
         <v>0.04</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8">
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E20">
         <v>0.04</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8">
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8">
       <c r="D23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8">
       <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E24">
         <v>0.4</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8">
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E25">
         <v>0.5</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8">
       <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8">
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="5">
         <v>0.49</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="H28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8">
       <c r="D29" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="5">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="4:8">
       <c r="D30" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="4:8">
       <c r="D31" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="4:8">
       <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="4:8">
       <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8">
       <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="7">
         <v>6.2</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8">
       <c r="D37" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="1">
         <v>0.6</v>
       </c>
-      <c r="G37">
-        <f>SUM(E10:E38)</f>
-        <v>21.740000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="H37">
+        <f>SUM(E28:E38)</f>
+        <v>16.020000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
       <c r="D38" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="H40">
+        <f>SUM(E10:E25)</f>
+        <v>5.7200000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1002,8 +1044,11 @@
     <hyperlink ref="E35" r:id="rId22" display="SN65HVD232D"/>
     <hyperlink ref="E37" r:id="rId23" display="http://www.tme.eu/pl/details/zl201-08g/listwy-i-gniazda-kolkowe/connfly/ds1021-1_8sf1-1/"/>
     <hyperlink ref="D14" r:id="rId24"/>
+    <hyperlink ref="F35" r:id="rId25" display="8,80"/>
+    <hyperlink ref="F33" r:id="rId26" display="http://pl.farnell.com/stmicroelectronics/stm32f042g4u6/mcu-32bit-cortex-m0-48mhz-ufqfn/dp/2469550?ost=STM32F042G4U6&amp;selectedCategoryId=&amp;categoryNameResp=Wszystkie%2Bkategorie&amp;searchView=table&amp;iscrfnonsku=false"/>
+    <hyperlink ref="F28" r:id="rId27" display="http://pl.farnell.com/nxp/pesd2can/diode-tvs-can-sot-23/dp/1510712"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>